--- a/data/trans_orig/P1435_2011_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Estudios-trans_orig.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,576 +874,652 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0</v>
+        <v>908</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+        <v>974643</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>974643</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>974643</v>
+      </c>
       <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr"/>
-      <c r="I6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" s="5" t="n">
-        <v>0</v>
+        <v>1247</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+        <v>1337797</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1337797</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1337797</v>
+      </c>
       <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="inlineStr"/>
-      <c r="P6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" s="5" t="n">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="inlineStr"/>
-      <c r="T6" s="5" t="inlineStr"/>
+        <v>2312440</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>2312440</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>2312440</v>
+      </c>
       <c r="U6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="inlineStr"/>
-      <c r="W6" s="6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>908</v>
+        <v>1851</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>974643</v>
+        <v>1959152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>974643</v>
+        <v>1953424</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>974643</v>
+        <v>1962080</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.9975534744820589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.9946368641985224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9990444169716541</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>1247</v>
+        <v>1582</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>1337797</v>
+        <v>1698899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1337797</v>
+        <v>1681017</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1337797</v>
+        <v>1712634</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.966490205982412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.956317077535043</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9743037815832756</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>2155</v>
+        <v>3433</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>2312440</v>
+        <v>3658052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2312440</v>
+        <v>3640635</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2312440</v>
+        <v>3673933</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9828821643991287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.978202465918367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9871494018074519</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundarios</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1851</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1959152</v>
+        <v>4805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1953424</v>
+        <v>1877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1962080</v>
+        <v>10533</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9975534744820589</v>
+        <v>0.002446525517941066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9946368641985224</v>
+        <v>0.0009555830283458179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990444169716541</v>
+        <v>0.005363135801477616</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1582</v>
+        <v>53</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1698899</v>
+        <v>58904</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1681017</v>
+        <v>45169</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1712634</v>
+        <v>76786</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.966490205982412</v>
+        <v>0.03350979401758804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.956317077535043</v>
+        <v>0.02569621841672438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9743037815832756</v>
+        <v>0.04368292246495691</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>3433</v>
+        <v>58</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>3658052</v>
+        <v>63708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3640635</v>
+        <v>47827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3673933</v>
+        <v>81125</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9828821643991287</v>
+        <v>0.01711783560087135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.978202465918367</v>
+        <v>0.01285059819254814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9871494018074519</v>
+        <v>0.02179753408163291</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5</v>
+        <v>1856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4805</v>
+        <v>1963957</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1877</v>
+        <v>1963957</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10533</v>
+        <v>1963957</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.002446525517941066</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0009555830283458179</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.005363135801477616</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>53</v>
+        <v>1635</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>58904</v>
+        <v>1757803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45169</v>
+        <v>1757803</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76786</v>
+        <v>1757803</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03350979401758804</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02569621841672438</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04368292246495691</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>58</v>
+        <v>3491</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>63708</v>
+        <v>3721760</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47827</v>
+        <v>3721760</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>81125</v>
+        <v>3721760</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.01711783560087135</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01285059819254814</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02179753408163291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+        <v>480134</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>475835</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>481181</v>
+      </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="inlineStr"/>
-      <c r="I10" s="6" t="inlineStr"/>
+        <v>0.9978232270256898</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.988888934192187</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" s="5" t="n">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+        <v>441324</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>430903</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>448611</v>
+      </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="inlineStr"/>
-      <c r="P10" s="6" t="inlineStr"/>
+        <v>0.9622641134998817</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0.9395422716566385</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.9781514679223631</v>
+      </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr"/>
-      <c r="T10" s="5" t="inlineStr"/>
+        <v>921459</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>908775</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>928554</v>
+      </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="6" t="inlineStr"/>
-      <c r="W10" s="6" t="inlineStr"/>
+        <v>0.9804702821855624</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>0.9669737828210483</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>0.9880195942702604</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1047</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5346</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.002176772974310133</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.011111065807813</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>17307</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>10020</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>27728</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.03773588650011823</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.02184853207763681</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.06045772834336112</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>18354</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>11259</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>31038</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.0195297178144376</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.01198040572973949</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.03302621717895136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>1856</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>1963957</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>1963957</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>1963957</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>1635</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1757803</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1757803</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1757803</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>3491</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>3721760</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>3721760</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>3721760</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Universitarios</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
       <c r="C12" s="5" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>480134</v>
+        <v>481181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>475835</v>
+        <v>481181</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>481181</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9978232270256898</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.988888934192187</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>441324</v>
+        <v>458631</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>430903</v>
+        <v>458631</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>448611</v>
+        <v>458631</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.9622641134998817</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9395422716566385</v>
+        <v>1</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9781514679223631</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="5" t="n">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="R12" s="5" t="n">
-        <v>921459</v>
+        <v>939813</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>908775</v>
+        <v>939813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>928554</v>
+        <v>939813</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9804702821855624</v>
+        <v>1</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9669737828210483</v>
+        <v>1</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9880195942702604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1</v>
+        <v>3191</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1047</v>
+        <v>3408768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
+        <v>3399973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5346</v>
+        <v>3414702</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.002176772974310133</v>
+        <v>0.9967792322618015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0</v>
+        <v>0.9942074722861935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.011111065807813</v>
+        <v>0.9985144823118488</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>15</v>
+        <v>3178</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>17307</v>
+        <v>3427477</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10020</v>
+        <v>3403938</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27728</v>
+        <v>3447654</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.03773588650011823</v>
+        <v>0.9643375138694212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02184853207763681</v>
+        <v>0.9577146565262979</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06045772834336112</v>
+        <v>0.9700143177912405</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>16</v>
+        <v>6369</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>18354</v>
+        <v>6836245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11259</v>
+        <v>6810329</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31038</v>
+        <v>6858330</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0195297178144376</v>
+        <v>0.9802456593569601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01198040572973949</v>
+        <v>0.9765295127591839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03302621717895136</v>
+        <v>0.9834124479865884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+        <v>11014</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>5080</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>19809</v>
+      </c>
       <c r="G14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr"/>
-      <c r="I14" s="6" t="inlineStr"/>
+        <v>0.003220767738198485</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.001485517688151176</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.005792527713806459</v>
+      </c>
       <c r="J14" s="5" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+        <v>126753</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>106576</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>150292</v>
+      </c>
       <c r="N14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="inlineStr"/>
-      <c r="P14" s="6" t="inlineStr"/>
+        <v>0.03566248613057871</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.02998568220875951</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.04228534347370202</v>
+      </c>
       <c r="Q14" s="5" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="inlineStr"/>
-      <c r="T14" s="5" t="inlineStr"/>
+        <v>137767</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>115682</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>163683</v>
+      </c>
       <c r="U14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="inlineStr"/>
-      <c r="W14" s="6" t="inlineStr"/>
+        <v>0.01975434064303989</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.01658755201341165</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.02347048724081623</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1453,16 +1529,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>438</v>
+        <v>3202</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>481181</v>
+        <v>3419782</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>481181</v>
+        <v>3419782</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>481181</v>
+        <v>3419782</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -1474,16 +1550,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>412</v>
+        <v>3294</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>458631</v>
+        <v>3554230</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>458631</v>
+        <v>3554230</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>458631</v>
+        <v>3554230</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -1495,16 +1571,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>850</v>
+        <v>6496</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>939813</v>
+        <v>6974012</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>939813</v>
+        <v>6974012</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>939813</v>
+        <v>6974012</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -1517,271 +1593,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>3191</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>3408768</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>3399973</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>3414702</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.9967792322618015</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.9942074722861935</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.9985144823118488</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>3178</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>3427477</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>3403938</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>3447654</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.9643375138694212</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.9577146565262979</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.9700143177912405</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>6369</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>6836245</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>6810329</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>6858330</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.9802456593569601</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.9765295127591839</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.9834124479865884</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>11014</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>5080</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>19809</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.003220767738198485</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.001485517688151176</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.005792527713806459</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>116</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>126753</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>106576</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>150292</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.03566248613057871</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.02998568220875951</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.04228534347370202</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>127</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>137767</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>115682</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>163683</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.01975434064303989</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.01658755201341165</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.02347048724081623</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="inlineStr"/>
-      <c r="J18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="inlineStr"/>
-      <c r="P18" s="6" t="inlineStr"/>
-      <c r="Q18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5" t="inlineStr"/>
-      <c r="T18" s="5" t="inlineStr"/>
-      <c r="U18" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6" t="inlineStr"/>
-      <c r="W18" s="6" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3202</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>3419782</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>3419782</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>3419782</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>3294</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>3554230</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>3554230</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>3554230</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>6496</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>6974012</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>6974012</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>6974012</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -1790,13 +1602,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1808,7 +1620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2031,44 +1843,68 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+        <v>563646</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>554705</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>569162</v>
+      </c>
       <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr"/>
-      <c r="I4" s="6" t="inlineStr"/>
+        <v>0.9759394820661821</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.960457997705872</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9854896350076036</v>
+      </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+        <v>733418</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>718451</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>745672</v>
+      </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="inlineStr"/>
-      <c r="P4" s="6" t="inlineStr"/>
+        <v>0.8937500686620506</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.8755101157731785</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.9086828779020008</v>
+      </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>1951</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="inlineStr"/>
-      <c r="T4" s="5" t="inlineStr"/>
+        <v>1297064</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>1278890</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>1311003</v>
+      </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="inlineStr"/>
-      <c r="W4" s="6" t="inlineStr"/>
+        <v>0.9277005321735097</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.9147019255625721</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.9376700521540271</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -2145,599 +1981,651 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>563646</v>
+        <v>577542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>554705</v>
+        <v>577542</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>569162</v>
+        <v>577542</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9759394820661821</v>
+        <v>1</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.960457997705872</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9854896350076036</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1278</v>
+        <v>1425</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>733418</v>
+        <v>820608</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>718451</v>
+        <v>820608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>745672</v>
+        <v>820608</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8937500686620506</v>
+        <v>1</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8755101157731785</v>
+        <v>1</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9086828779020008</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="5" t="n">
-        <v>1951</v>
+        <v>2115</v>
       </c>
       <c r="R6" s="5" t="n">
-        <v>1297064</v>
+        <v>1398150</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1278890</v>
+        <v>1398150</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1311003</v>
+        <v>1398150</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9277005321735097</v>
+        <v>1</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9147019255625721</v>
+        <v>1</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9376700521540271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>690</v>
+        <v>1961</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>577542</v>
+        <v>2196842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>577542</v>
+        <v>2180814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>577542</v>
+        <v>2207398</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1</v>
+        <v>0.9857499853405224</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1</v>
+        <v>0.97855804861949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1</v>
+        <v>0.9904863619030666</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>1425</v>
+        <v>2648</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>820608</v>
+        <v>1985691</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>820608</v>
+        <v>1964523</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>820608</v>
+        <v>2008564</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1</v>
+        <v>0.9155428114254847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>1</v>
+        <v>0.9057831599414908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.9260890265354894</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>2115</v>
+        <v>4609</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>1398150</v>
+        <v>4182533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1398150</v>
+        <v>4155001</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1398150</v>
+        <v>4207956</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>1</v>
+        <v>0.9511232291171896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>1</v>
+        <v>0.944862362350763</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.9569045525478014</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundarios</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+        <v>31758</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>21202</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>47786</v>
+      </c>
       <c r="G8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+        <v>0.01425001465947745</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.009513638096932925</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02144195138050925</v>
+      </c>
       <c r="J8" s="5" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+        <v>183176</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>160303</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>204344</v>
+      </c>
       <c r="N8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="inlineStr"/>
-      <c r="P8" s="6" t="inlineStr"/>
+        <v>0.08445718857451531</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.0739109734645105</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.0942168400585089</v>
+      </c>
       <c r="Q8" s="5" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="inlineStr"/>
-      <c r="T8" s="5" t="inlineStr"/>
+        <v>214934</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>189511</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>242466</v>
+      </c>
       <c r="U8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="6" t="inlineStr"/>
-      <c r="W8" s="6" t="inlineStr"/>
+        <v>0.04887677088281042</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.04309544745219875</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.05513763764923699</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>29</v>
+        <v>1990</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31758</v>
+        <v>2228600</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21202</v>
+        <v>2228600</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>47786</v>
+        <v>2228600</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01425001465947745</v>
+        <v>1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009513638096932925</v>
+        <v>1</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02144195138050925</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>269</v>
+        <v>2917</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>183176</v>
+        <v>2168867</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>160303</v>
+        <v>2168867</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>204344</v>
+        <v>2168867</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08445718857451531</v>
+        <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0739109734645105</v>
+        <v>1</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0942168400585089</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>298</v>
+        <v>4907</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>214934</v>
+        <v>4397467</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>189511</v>
+        <v>4397467</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>242466</v>
+        <v>4397467</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.04887677088281042</v>
+        <v>1</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04309544745219875</v>
+        <v>1</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05513763764923699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1961</v>
+        <v>665</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2196842</v>
+        <v>697666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2180814</v>
+        <v>688813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2207398</v>
+        <v>703728</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9857499853405224</v>
+        <v>0.9804372198747979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.97855804861949</v>
+        <v>0.9679954229110626</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9904863619030666</v>
+        <v>0.988955814656414</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>2648</v>
+        <v>910</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1985691</v>
+        <v>671453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1964523</v>
+        <v>658592</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2008564</v>
+        <v>683117</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9155428114254847</v>
+        <v>0.9163244757142485</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9057831599414908</v>
+        <v>0.8987730940751566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9260890265354894</v>
+        <v>0.9322412576348598</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>4609</v>
+        <v>1575</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>4182533</v>
+        <v>1369120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4155001</v>
+        <v>1353559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4207956</v>
+        <v>1382653</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9511232291171896</v>
+        <v>0.947910744222598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.944862362350763</v>
+        <v>0.9371372167135702</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9569045525478014</v>
+        <v>0.957280481767129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>13921</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>7859</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>22774</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.01956278012520225</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.01104418534358645</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.03200457708893753</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>61315</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>49651</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>74176</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.0836755242857514</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.06775874236514022</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.1012269059248431</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>75235</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>61702</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>90796</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.05208925577740222</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.04271951823287098</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.06286278328642994</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>1990</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>2228600</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2228600</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>2228600</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>2168867</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>2168867</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>2168867</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>4907</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>4397467</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>4397467</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>4397467</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Universitarios</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C12" s="5" t="n">
+        <v>681</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>711587</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>711587</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>711587</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1001</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>732768</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>732768</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>732768</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>1682</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>1444355</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>1444355</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>1444355</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="inlineStr"/>
-      <c r="I12" s="6" t="inlineStr"/>
-      <c r="J12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="inlineStr"/>
-      <c r="P12" s="6" t="inlineStr"/>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5" t="inlineStr"/>
-      <c r="T12" s="5" t="inlineStr"/>
-      <c r="U12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="6" t="inlineStr"/>
-      <c r="W12" s="6" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
       <c r="C13" s="5" t="n">
-        <v>16</v>
+        <v>3299</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>13921</v>
+        <v>3458155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7859</v>
+        <v>3439176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22774</v>
+        <v>3472430</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.01956278012520225</v>
+        <v>0.9830645960824947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01104418534358645</v>
+        <v>0.9776695093162253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03200457708893753</v>
+        <v>0.98712269233715</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>91</v>
+        <v>4836</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>61315</v>
+        <v>3390562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49651</v>
+        <v>3360516</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74176</v>
+        <v>3420640</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0836755242857514</v>
+        <v>0.9108922511218807</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06775874236514022</v>
+        <v>0.9028202100023093</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1012269059248431</v>
+        <v>0.9189727432121289</v>
       </c>
       <c r="Q13" s="5" t="n">
-        <v>107</v>
+        <v>8135</v>
       </c>
       <c r="R13" s="5" t="n">
-        <v>75235</v>
+        <v>6848718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61702</v>
+        <v>6813050</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90796</v>
+        <v>6882240</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05208925577740222</v>
+        <v>0.9459590646278506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04271951823287098</v>
+        <v>0.9410325330375779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06286278328642994</v>
+        <v>0.950589180333324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>665</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>697666</v>
+        <v>59574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>688813</v>
+        <v>45299</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>703728</v>
+        <v>78553</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9804372198747979</v>
+        <v>0.01693540391750512</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9679954229110626</v>
+        <v>0.01287730766284992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988955814656414</v>
+        <v>0.02233049068377432</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>910</v>
+        <v>507</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>671453</v>
+        <v>331681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>658592</v>
+        <v>301603</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>683117</v>
+        <v>361727</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9163244757142485</v>
+        <v>0.08910774887811918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8987730940751566</v>
+        <v>0.0810272567878708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9322412576348598</v>
+        <v>0.09717978999769047</v>
       </c>
       <c r="Q14" s="5" t="n">
-        <v>1575</v>
+        <v>569</v>
       </c>
       <c r="R14" s="5" t="n">
-        <v>1369120</v>
+        <v>391255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1353559</v>
+        <v>357733</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1382653</v>
+        <v>426923</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.947910744222598</v>
+        <v>0.05404093537214937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9371372167135702</v>
+        <v>0.04941081966667599</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.957280481767129</v>
+        <v>0.05896746696242215</v>
       </c>
     </row>
     <row r="15">
@@ -2748,16 +2636,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>681</v>
+        <v>3361</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>711587</v>
+        <v>3517729</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>711587</v>
+        <v>3517729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>711587</v>
+        <v>3517729</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>1</v>
@@ -2769,16 +2657,16 @@
         <v>1</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1001</v>
+        <v>5343</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>732768</v>
+        <v>3722243</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>732768</v>
+        <v>3722243</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>732768</v>
+        <v>3722243</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>1</v>
@@ -2790,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="Q15" s="5" t="n">
-        <v>1682</v>
+        <v>8704</v>
       </c>
       <c r="R15" s="5" t="n">
-        <v>1444355</v>
+        <v>7239973</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1444355</v>
+        <v>7239973</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1444355</v>
+        <v>7239973</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>1</v>
@@ -2812,271 +2700,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="inlineStr"/>
-      <c r="I16" s="6" t="inlineStr"/>
-      <c r="J16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="inlineStr"/>
-      <c r="P16" s="6" t="inlineStr"/>
-      <c r="Q16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5" t="inlineStr"/>
-      <c r="T16" s="5" t="inlineStr"/>
-      <c r="U16" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" s="6" t="inlineStr"/>
-      <c r="W16" s="6" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>59574</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>45299</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>78553</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.01693540391750512</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.01287730766284992</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.02233049068377432</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>507</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>331681</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>301603</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>361727</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.08910774887811918</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.0810272567878708</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.09717978999769047</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>569</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>391255</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>357733</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>426923</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.05404093537214937</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.04941081966667599</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.05896746696242215</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>3299</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>3458155</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>3439176</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>3472430</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.9830645960824947</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.9776695093162253</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.98712269233715</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>4836</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>3390562</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>3360516</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>3420640</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.9108922511218807</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.9028202100023093</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.9189727432121289</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>8135</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>6848718</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>6813050</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>6882240</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.9459590646278506</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.9410325330375779</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.950589180333324</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>3361</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>3517729</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>3517729</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>3517729</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>5343</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>3722243</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>3722243</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>3722243</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>8704</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>7239973</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>7239973</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>7239973</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -3085,13 +2709,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1435_2011_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>969481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>962995</v>
+        <v>963332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>972645</v>
+        <v>972665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9947036726777129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9880486359293555</v>
+        <v>0.9883944694117499</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9979498066052421</v>
+        <v>0.9979701026670438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1199</v>
@@ -763,19 +763,19 @@
         <v>1287255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1270793</v>
+        <v>1272043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1300419</v>
+        <v>1300365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9622197912152677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9499147865645587</v>
+        <v>0.9508493118667226</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9720600233568035</v>
+        <v>0.9720194609056878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2102</v>
@@ -784,19 +784,19 @@
         <v>2256736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2239584</v>
+        <v>2239534</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2269323</v>
+        <v>2270103</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9759110411885593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9684936754677512</v>
+        <v>0.968472318390151</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9813542689605971</v>
+        <v>0.9816915256252032</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>5162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1998</v>
+        <v>1978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11648</v>
+        <v>11311</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005296327322287115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002050193394757882</v>
+        <v>0.002029897332956174</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01195136407064497</v>
+        <v>0.01160553058825004</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -834,19 +834,19 @@
         <v>50542</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37378</v>
+        <v>37432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67004</v>
+        <v>65754</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03778020878473237</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02793997664319641</v>
+        <v>0.02798053909431226</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05008521343544108</v>
+        <v>0.04915068813327743</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -855,19 +855,19 @@
         <v>55704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43117</v>
+        <v>42337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72856</v>
+        <v>72906</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02408895881144072</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0186457310394032</v>
+        <v>0.0183084743747967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03150632453224879</v>
+        <v>0.03152768160984895</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>1959152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1953424</v>
+        <v>1953182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1962080</v>
+        <v>1962083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9975534744820589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9946368641985224</v>
+        <v>0.9945135060271002</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9990444169716541</v>
+        <v>0.9990460295066461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1582</v>
@@ -980,19 +980,19 @@
         <v>1698899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1681017</v>
+        <v>1681346</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1712634</v>
+        <v>1714738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.966490205982412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.956317077535043</v>
+        <v>0.9565042383200407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9743037815832756</v>
+        <v>0.9755006815384996</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3433</v>
@@ -1001,19 +1001,19 @@
         <v>3658052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3640635</v>
+        <v>3640309</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3673933</v>
+        <v>3673092</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9828821643991287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.978202465918367</v>
+        <v>0.978114876967749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9871494018074519</v>
+        <v>0.9869233143892895</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>4805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10533</v>
+        <v>10775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002446525517941066</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0009555830283458179</v>
+        <v>0.0009539704933538481</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.005363135801477616</v>
+        <v>0.00548649397289975</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -1051,19 +1051,19 @@
         <v>58904</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45169</v>
+        <v>43065</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76786</v>
+        <v>76457</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03350979401758804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02569621841672438</v>
+        <v>0.02449931846150103</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04368292246495691</v>
+        <v>0.04349576167995935</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -1072,19 +1072,19 @@
         <v>63708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>47827</v>
+        <v>48668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81125</v>
+        <v>81451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01711783560087135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01285059819254814</v>
+        <v>0.01307668561071046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02179753408163291</v>
+        <v>0.02188512303225095</v>
       </c>
     </row>
     <row r="9">
@@ -1176,7 +1176,7 @@
         <v>480134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>475835</v>
+        <v>476854</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>481181</v>
@@ -1185,7 +1185,7 @@
         <v>0.9978232270256898</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.988888934192187</v>
+        <v>0.9910065622528487</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1197,19 +1197,19 @@
         <v>441324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>430903</v>
+        <v>430222</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>448611</v>
+        <v>448338</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9622641134998817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9395422716566385</v>
+        <v>0.9380576432211439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9781514679223631</v>
+        <v>0.9775571932378571</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>834</v>
@@ -1218,19 +1218,19 @@
         <v>921459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>908775</v>
+        <v>909493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>928554</v>
+        <v>929022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9804702821855624</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9669737828210483</v>
+        <v>0.9677378670259202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9880195942702604</v>
+        <v>0.9885184283042631</v>
       </c>
     </row>
     <row r="11">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5346</v>
+        <v>4327</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002176772974310133</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.011111065807813</v>
+        <v>0.008993437747151434</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1268,19 +1268,19 @@
         <v>17307</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10020</v>
+        <v>10293</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27728</v>
+        <v>28409</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03773588650011823</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02184853207763681</v>
+        <v>0.02244280676214296</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06045772834336112</v>
+        <v>0.06194235677885501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -1289,19 +1289,19 @@
         <v>18354</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11259</v>
+        <v>10791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31038</v>
+        <v>30320</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0195297178144376</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01198040572973949</v>
+        <v>0.01148157169573693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03302621717895136</v>
+        <v>0.03226213297407969</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>3408768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3399973</v>
+        <v>3400721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3414702</v>
+        <v>3413901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9967792322618015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9942074722861935</v>
+        <v>0.9944263935720675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9985144823118488</v>
+        <v>0.9982804068391726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3178</v>
@@ -1414,19 +1414,19 @@
         <v>3427477</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3403938</v>
+        <v>3403784</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3447654</v>
+        <v>3449534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9643375138694212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9577146565262979</v>
+        <v>0.9576713093834018</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9700143177912405</v>
+        <v>0.9705431997951051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6369</v>
@@ -1435,19 +1435,19 @@
         <v>6836245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6810329</v>
+        <v>6811091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6858330</v>
+        <v>6859970</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9802456593569601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9765295127591839</v>
+        <v>0.9766389131461971</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9834124479865884</v>
+        <v>0.9836475463977421</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>11014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5080</v>
+        <v>5881</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19809</v>
+        <v>19061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003220767738198485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001485517688151176</v>
+        <v>0.001719593160827362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005792527713806459</v>
+        <v>0.005573606427932252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -1485,19 +1485,19 @@
         <v>126753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106576</v>
+        <v>104696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150292</v>
+        <v>150446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03566248613057871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02998568220875951</v>
+        <v>0.02945680020489531</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04228534347370202</v>
+        <v>0.04232869061659833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -1506,19 +1506,19 @@
         <v>137767</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115682</v>
+        <v>114042</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163683</v>
+        <v>162921</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01975434064303989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01658755201341165</v>
+        <v>0.01635245360225806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02347048724081623</v>
+        <v>0.02336108685380288</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>563646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>554705</v>
+        <v>554977</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>569162</v>
+        <v>569311</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9759394820661821</v>
+        <v>0.9759394820661823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.960457997705872</v>
+        <v>0.9609292691520861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9854896350076036</v>
+        <v>0.9857484445172268</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1278</v>
@@ -1870,19 +1870,19 @@
         <v>733418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>718451</v>
+        <v>718900</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>745672</v>
+        <v>746285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8937500686620506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8755101157731785</v>
+        <v>0.8760582445268382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9086828779020008</v>
+        <v>0.909429467238222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1951</v>
@@ -1891,19 +1891,19 @@
         <v>1297064</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1278890</v>
+        <v>1280112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1311003</v>
+        <v>1311194</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9277005321735097</v>
+        <v>0.9277005321735098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9147019255625721</v>
+        <v>0.9155752615810813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9376700521540271</v>
+        <v>0.9378065423960374</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>13896</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8380</v>
+        <v>8231</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22837</v>
+        <v>22565</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02406051793381775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01451036499239657</v>
+        <v>0.01425155548277316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03954200229412808</v>
+        <v>0.0390707308479141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>147</v>
@@ -1941,19 +1941,19 @@
         <v>87190</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74936</v>
+        <v>74323</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102157</v>
+        <v>101708</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1062499313379493</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09131712209799948</v>
+        <v>0.09057053276177794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1244898842268215</v>
+        <v>0.1239417554731618</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>164</v>
@@ -1962,19 +1962,19 @@
         <v>101086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87147</v>
+        <v>86956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>119260</v>
+        <v>118038</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.07229946782649024</v>
+        <v>0.07229946782649026</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0623299478459728</v>
+        <v>0.062193457603962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08529807443742776</v>
+        <v>0.08442473841891833</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>2196842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2180814</v>
+        <v>2182592</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2207398</v>
+        <v>2207516</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9857499853405224</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.97855804861949</v>
+        <v>0.9793555433322692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9904863619030666</v>
+        <v>0.9905392643253174</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2648</v>
@@ -2087,19 +2087,19 @@
         <v>1985691</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1964523</v>
+        <v>1963112</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2008564</v>
+        <v>2007617</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9155428114254847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9057831599414908</v>
+        <v>0.9051325376362497</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9260890265354894</v>
+        <v>0.9256524492055563</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4609</v>
@@ -2108,19 +2108,19 @@
         <v>4182533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4155001</v>
+        <v>4156330</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4207956</v>
+        <v>4208248</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9511232291171896</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.944862362350763</v>
+        <v>0.9451646305840715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9569045525478014</v>
+        <v>0.9569710141888188</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>31758</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21202</v>
+        <v>21084</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>47786</v>
+        <v>46008</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.01425001465947745</v>
+        <v>0.01425001465947746</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009513638096932925</v>
+        <v>0.009460735674682643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02144195138050925</v>
+        <v>0.02064445666773064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>269</v>
@@ -2158,19 +2158,19 @@
         <v>183176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>160303</v>
+        <v>161250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>204344</v>
+        <v>205755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08445718857451531</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0739109734645105</v>
+        <v>0.07434755079444355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0942168400585089</v>
+        <v>0.09486746236374979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>298</v>
@@ -2179,19 +2179,19 @@
         <v>214934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>189511</v>
+        <v>189219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>242466</v>
+        <v>241137</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04887677088281042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04309544745219875</v>
+        <v>0.04302898581118121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05513763764923699</v>
+        <v>0.05483536941592836</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>697666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>688813</v>
+        <v>688388</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>703728</v>
+        <v>703052</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9804372198747979</v>
+        <v>0.9804372198747976</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9679954229110626</v>
+        <v>0.9673975346462663</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.988955814656414</v>
+        <v>0.9880059785219429</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>910</v>
@@ -2304,19 +2304,19 @@
         <v>671453</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>658592</v>
+        <v>657513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>683117</v>
+        <v>682828</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9163244757142485</v>
+        <v>0.9163244757142487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8987730940751566</v>
+        <v>0.8972997269449884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9322412576348598</v>
+        <v>0.931847330107899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1575</v>
@@ -2325,19 +2325,19 @@
         <v>1369120</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1353559</v>
+        <v>1353453</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1382653</v>
+        <v>1381924</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.947910744222598</v>
+        <v>0.9479107442225977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9371372167135702</v>
+        <v>0.9370637921671391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.957280481767129</v>
+        <v>0.9567758936288132</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>13921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7859</v>
+        <v>8535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22774</v>
+        <v>23199</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01956278012520225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01104418534358645</v>
+        <v>0.01199402147805708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03200457708893753</v>
+        <v>0.03260246535373357</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -2375,19 +2375,19 @@
         <v>61315</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49651</v>
+        <v>49940</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74176</v>
+        <v>75255</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.0836755242857514</v>
+        <v>0.08367552428575141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06775874236514022</v>
+        <v>0.06815266989210102</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1012269059248431</v>
+        <v>0.1027002730550118</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>107</v>
@@ -2396,19 +2396,19 @@
         <v>75235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>61702</v>
+        <v>62431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90796</v>
+        <v>90902</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.05208925577740222</v>
+        <v>0.05208925577740221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04271951823287098</v>
+        <v>0.04322410637118671</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06286278328642994</v>
+        <v>0.06293620783286083</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>3458155</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3439176</v>
+        <v>3440188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3472430</v>
+        <v>3471960</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9830645960824947</v>
+        <v>0.983064596082495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9776695093162253</v>
+        <v>0.9779570996706879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.98712269233715</v>
+        <v>0.986989105875661</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4836</v>
@@ -2521,19 +2521,19 @@
         <v>3390562</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3360516</v>
+        <v>3357104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3420640</v>
+        <v>3416619</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9108922511218807</v>
+        <v>0.9108922511218808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9028202100023093</v>
+        <v>0.9019033735042727</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9189727432121289</v>
+        <v>0.9178923943509645</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8135</v>
@@ -2542,19 +2542,19 @@
         <v>6848718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6813050</v>
+        <v>6811066</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6882240</v>
+        <v>6880114</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9459590646278506</v>
+        <v>0.9459590646278508</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9410325330375779</v>
+        <v>0.9407584458667286</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.950589180333324</v>
+        <v>0.9502955086894278</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>59574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45299</v>
+        <v>45769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78553</v>
+        <v>77541</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01693540391750512</v>
+        <v>0.01693540391750513</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01287730766284992</v>
+        <v>0.01301089412433901</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02233049068377432</v>
+        <v>0.02204290032931209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>507</v>
@@ -2592,19 +2592,19 @@
         <v>331681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>301603</v>
+        <v>305624</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>361727</v>
+        <v>365139</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08910774887811918</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0810272567878708</v>
+        <v>0.08210760564903537</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09717978999769047</v>
+        <v>0.09809662649572712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>569</v>
@@ -2613,19 +2613,19 @@
         <v>391255</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>357733</v>
+        <v>359859</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>426923</v>
+        <v>428907</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05404093537214937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04941081966667599</v>
+        <v>0.04970449131057172</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05896746696242215</v>
+        <v>0.05924155413327135</v>
       </c>
     </row>
     <row r="15">
